--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_HSS.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_HSS.xlsx
@@ -377,121 +377,121 @@
     <t>9367462881</t>
   </si>
   <si>
-    <t>HSS113</t>
-  </si>
-  <si>
-    <t>hssdomain113.com</t>
-  </si>
-  <si>
-    <t>hssocn113</t>
-  </si>
-  <si>
-    <t>testreference113</t>
-  </si>
-  <si>
-    <t>hsscontact113</t>
-  </si>
-  <si>
-    <t>hss113@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_113</t>
-  </si>
-  <si>
-    <t>HSSRFI_113</t>
-  </si>
-  <si>
-    <t>HSSService_113</t>
-  </si>
-  <si>
-    <t>HSSOrderedit_113</t>
-  </si>
-  <si>
-    <t>HSSRFIedit_113</t>
-  </si>
-  <si>
-    <t>HSS114</t>
-  </si>
-  <si>
-    <t>hssdomain114.com</t>
-  </si>
-  <si>
-    <t>hssocn114</t>
-  </si>
-  <si>
-    <t>testreference114</t>
-  </si>
-  <si>
-    <t>hsscontact114</t>
-  </si>
-  <si>
-    <t>hss114@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_114</t>
-  </si>
-  <si>
-    <t>HSSRFI_114</t>
-  </si>
-  <si>
-    <t>HSSService_114</t>
-  </si>
-  <si>
-    <t>HSSOrderedit_114</t>
-  </si>
-  <si>
-    <t>HSSRFIedit_114</t>
-  </si>
-  <si>
-    <t>10.25.32.46</t>
-  </si>
-  <si>
-    <t>10.25.32.47</t>
-  </si>
-  <si>
-    <t>Device287</t>
-  </si>
-  <si>
-    <t>Device288</t>
-  </si>
-  <si>
-    <t>HSS118</t>
-  </si>
-  <si>
-    <t>hssdomain118.com</t>
-  </si>
-  <si>
-    <t>hssocn118</t>
-  </si>
-  <si>
-    <t>testreference118</t>
-  </si>
-  <si>
-    <t>hsscontact118</t>
-  </si>
-  <si>
-    <t>hss118@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_118</t>
-  </si>
-  <si>
-    <t>HSSRFI_118</t>
-  </si>
-  <si>
-    <t>HSSService_118</t>
-  </si>
-  <si>
-    <t>HSSOrderedit_118</t>
-  </si>
-  <si>
-    <t>HSSRFIedit_118</t>
-  </si>
-  <si>
-    <t>Device292</t>
-  </si>
-  <si>
-    <t>10.25.34.50</t>
+    <t>HSS122</t>
+  </si>
+  <si>
+    <t>hssdomain122.com</t>
+  </si>
+  <si>
+    <t>hssocn122</t>
+  </si>
+  <si>
+    <t>testreference122</t>
+  </si>
+  <si>
+    <t>hsscontact122</t>
+  </si>
+  <si>
+    <t>hss122@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_122</t>
+  </si>
+  <si>
+    <t>HSSRFI_122</t>
+  </si>
+  <si>
+    <t>HSSService_122</t>
+  </si>
+  <si>
+    <t>HSSOrderedit_122</t>
+  </si>
+  <si>
+    <t>HSSRFIedit_122</t>
+  </si>
+  <si>
+    <t>Device297</t>
+  </si>
+  <si>
+    <t>10.23.35.53</t>
+  </si>
+  <si>
+    <t>HSS123</t>
+  </si>
+  <si>
+    <t>hssdomain123.com</t>
+  </si>
+  <si>
+    <t>hssocn123</t>
+  </si>
+  <si>
+    <t>testreference123</t>
+  </si>
+  <si>
+    <t>hsscontact123</t>
+  </si>
+  <si>
+    <t>hss123@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_123</t>
+  </si>
+  <si>
+    <t>HSSRFI_123</t>
+  </si>
+  <si>
+    <t>HSSService_123</t>
+  </si>
+  <si>
+    <t>HSSOrderedit_123</t>
+  </si>
+  <si>
+    <t>HSSRFIedit_123</t>
+  </si>
+  <si>
+    <t>HSS124</t>
+  </si>
+  <si>
+    <t>hssdomain124.com</t>
+  </si>
+  <si>
+    <t>hssocn124</t>
+  </si>
+  <si>
+    <t>testreference124</t>
+  </si>
+  <si>
+    <t>hsscontact124</t>
+  </si>
+  <si>
+    <t>hss124@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_124</t>
+  </si>
+  <si>
+    <t>HSSRFI_124</t>
+  </si>
+  <si>
+    <t>HSSService_124</t>
+  </si>
+  <si>
+    <t>HSSOrderedit_124</t>
+  </si>
+  <si>
+    <t>HSSRFIedit_124</t>
+  </si>
+  <si>
+    <t>10.25.34.54</t>
+  </si>
+  <si>
+    <t>10.25.32.54</t>
+  </si>
+  <si>
+    <t>Device301</t>
+  </si>
+  <si>
+    <t>Device302</t>
   </si>
 </sst>
 </file>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -946,7 +946,9 @@
     <col min="31" max="31" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.140625" style="1" customWidth="1"/>
     <col min="33" max="33" width="19.28515625" style="1" customWidth="1"/>
-    <col min="34" max="43" width="9" style="1"/>
+    <col min="34" max="37" width="9" style="1"/>
+    <col min="38" max="38" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="43" width="9" style="1"/>
     <col min="44" max="44" width="19.7109375" style="1" customWidth="1"/>
     <col min="45" max="45" width="12.7109375" style="1" customWidth="1"/>
     <col min="46" max="46" width="14.28515625" style="1" customWidth="1"/>
@@ -1215,7 +1217,7 @@
     </row>
     <row r="2" spans="1:83" ht="33.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>97</v>
@@ -1227,31 +1229,31 @@
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>111</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>112</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>113</v>
@@ -1272,22 +1274,22 @@
         <v>30</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>11</v>
@@ -1317,16 +1319,16 @@
         <v>18</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AM2" s="14" t="s">
         <v>83</v>
@@ -1356,7 +1358,7 @@
         <v>22</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AW2" s="11" t="s">
         <v>50</v>
@@ -1466,7 +1468,7 @@
     </row>
     <row r="3" spans="1:83" ht="33.75" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>97</v>
@@ -1478,31 +1480,31 @@
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>111</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>112</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>113</v>
@@ -1523,22 +1525,22 @@
         <v>30</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="X3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>11</v>
@@ -1568,16 +1570,16 @@
         <v>18</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="AM3" s="14" t="s">
         <v>83</v>
@@ -1598,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="AS3" s="10" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AT3" s="10" t="s">
         <v>80</v>
@@ -1607,7 +1609,7 @@
         <v>22</v>
       </c>
       <c r="AV3" s="10" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="AW3" s="11" t="s">
         <v>50</v>
@@ -1729,31 +1731,31 @@
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>111</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>112</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>113</v>
@@ -1774,22 +1776,22 @@
         <v>30</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>11</v>
@@ -1819,16 +1821,16 @@
         <v>18</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="AM4" s="14" t="s">
         <v>83</v>
@@ -1849,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="AS4" s="10" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AT4" s="10" t="s">
         <v>80</v>
@@ -1858,7 +1860,7 @@
         <v>22</v>
       </c>
       <c r="AV4" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AW4" s="11" t="s">
         <v>50</v>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_HSS.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_HSS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SaiWorkspace_APT\APT_Automation_Project\src\com\colt\qa\datalibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_phase1_deliverable24082020\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="188">
   <si>
     <t>Country</t>
   </si>
@@ -47,27 +47,12 @@
     <t>PhoneContactValue</t>
   </si>
   <si>
-    <t>Performanceexpected</t>
-  </si>
-  <si>
-    <t>PerformanceDefault</t>
-  </si>
-  <si>
-    <t>Waveexpected</t>
-  </si>
-  <si>
-    <t>WaveDefault</t>
-  </si>
-  <si>
     <t>HSS  Creation</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>12345678</t>
-  </si>
-  <si>
     <t>test@test.com</t>
   </si>
   <si>
@@ -116,9 +101,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>EditOrder_OrderNumber</t>
   </si>
   <si>
@@ -140,15 +122,9 @@
     <t>ExistingSite</t>
   </si>
   <si>
-    <t>Existing SiteValue</t>
-  </si>
-  <si>
     <t>ExistingPremise</t>
   </si>
   <si>
-    <t>Existing PremiseValue</t>
-  </si>
-  <si>
     <t>NewSite</t>
   </si>
   <si>
@@ -377,121 +353,241 @@
     <t>9367462881</t>
   </si>
   <si>
-    <t>HSS122</t>
-  </si>
-  <si>
-    <t>hssdomain122.com</t>
-  </si>
-  <si>
-    <t>hssocn122</t>
-  </si>
-  <si>
-    <t>testreference122</t>
-  </si>
-  <si>
-    <t>hsscontact122</t>
-  </si>
-  <si>
-    <t>hss122@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_122</t>
-  </si>
-  <si>
-    <t>HSSRFI_122</t>
-  </si>
-  <si>
-    <t>HSSService_122</t>
-  </si>
-  <si>
-    <t>HSSOrderedit_122</t>
-  </si>
-  <si>
-    <t>HSSRFIedit_122</t>
-  </si>
-  <si>
-    <t>Device297</t>
-  </si>
-  <si>
-    <t>10.23.35.53</t>
-  </si>
-  <si>
-    <t>HSS123</t>
-  </si>
-  <si>
-    <t>hssdomain123.com</t>
-  </si>
-  <si>
-    <t>hssocn123</t>
-  </si>
-  <si>
-    <t>testreference123</t>
-  </si>
-  <si>
-    <t>hsscontact123</t>
-  </si>
-  <si>
-    <t>hss123@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_123</t>
-  </si>
-  <si>
-    <t>HSSRFI_123</t>
-  </si>
-  <si>
-    <t>HSSService_123</t>
-  </si>
-  <si>
-    <t>HSSOrderedit_123</t>
-  </si>
-  <si>
-    <t>HSSRFIedit_123</t>
-  </si>
-  <si>
-    <t>HSS124</t>
-  </si>
-  <si>
-    <t>hssdomain124.com</t>
-  </si>
-  <si>
-    <t>hssocn124</t>
-  </si>
-  <si>
-    <t>testreference124</t>
-  </si>
-  <si>
-    <t>hsscontact124</t>
-  </si>
-  <si>
-    <t>hss124@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_124</t>
-  </si>
-  <si>
-    <t>HSSRFI_124</t>
-  </si>
-  <si>
-    <t>HSSService_124</t>
-  </si>
-  <si>
-    <t>HSSOrderedit_124</t>
-  </si>
-  <si>
-    <t>HSSRFIedit_124</t>
-  </si>
-  <si>
-    <t>10.25.34.54</t>
-  </si>
-  <si>
-    <t>10.25.32.54</t>
-  </si>
-  <si>
-    <t>Device301</t>
-  </si>
-  <si>
-    <t>Device302</t>
+    <t>BR (Brazil)</t>
+  </si>
+  <si>
+    <t>BRA (BRAZIL)</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>12903</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>premise23</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>PerformanceReporting_Checkbox</t>
+  </si>
+  <si>
+    <t>WaveService_checkbox</t>
+  </si>
+  <si>
+    <t>Telnet</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>Snmp2C</t>
+  </si>
+  <si>
+    <t>Snmp3</t>
+  </si>
+  <si>
+    <t>SnmProNewValue</t>
+  </si>
+  <si>
+    <t>SnmprwNewValue</t>
+  </si>
+  <si>
+    <t>Snmpv3UsernameNewValue</t>
+  </si>
+  <si>
+    <t>Snmpv3AuthpasswordNewValue</t>
+  </si>
+  <si>
+    <t>Snmpv3PrivpasswordNewValue</t>
+  </si>
+  <si>
+    <t>SecurityProtocols_DropdownValue</t>
+  </si>
+  <si>
+    <t>SHA1_DES</t>
+  </si>
+  <si>
+    <t>editTelnet</t>
+  </si>
+  <si>
+    <t>editSSH</t>
+  </si>
+  <si>
+    <t>editSnmp2C</t>
+  </si>
+  <si>
+    <t>editSnmp3</t>
+  </si>
+  <si>
+    <t>editSnmProNewValue</t>
+  </si>
+  <si>
+    <t>editSnmprwNewValue</t>
+  </si>
+  <si>
+    <t>editSnmpv3UsernameNewValue</t>
+  </si>
+  <si>
+    <t>editSnmpv3AuthpasswordNewValue</t>
+  </si>
+  <si>
+    <t>editSnmpv3PrivpasswordNewValue</t>
+  </si>
+  <si>
+    <t>TestSnmproNew</t>
+  </si>
+  <si>
+    <t>TestSnmprwNew</t>
+  </si>
+  <si>
+    <t>TestV3Username</t>
+  </si>
+  <si>
+    <t>TestV3AuthPwd</t>
+  </si>
+  <si>
+    <t>TestV3PrivPwd</t>
+  </si>
+  <si>
+    <t>Edit_SecurityProtocols_Value</t>
+  </si>
+  <si>
+    <t>SHA1_AES</t>
+  </si>
+  <si>
+    <t>Ciena 6500</t>
+  </si>
+  <si>
+    <t>(BR_1305-971_B CAMPO GRANDE, S/N°, KM _8037_G_SERVE)</t>
+  </si>
+  <si>
+    <t>ExistingPremiseValue</t>
+  </si>
+  <si>
+    <t>ExistingSiteValue</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>37534</t>
+  </si>
+  <si>
+    <t>Device212</t>
+  </si>
+  <si>
+    <t>10.27.32.87</t>
+  </si>
+  <si>
+    <t>10.25.57.39</t>
+  </si>
+  <si>
+    <t>Device340</t>
+  </si>
+  <si>
+    <t>HSS1137</t>
+  </si>
+  <si>
+    <t>hssdomain1137.com</t>
+  </si>
+  <si>
+    <t>hssocn1137</t>
+  </si>
+  <si>
+    <t>testreference1137</t>
+  </si>
+  <si>
+    <t>hsscontact1137</t>
+  </si>
+  <si>
+    <t>hss1137@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_1137</t>
+  </si>
+  <si>
+    <t>HSSRFI_1137</t>
+  </si>
+  <si>
+    <t>HSSService_1137</t>
+  </si>
+  <si>
+    <t>113745678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit1137</t>
+  </si>
+  <si>
+    <t>HSSRFIedit1137</t>
+  </si>
+  <si>
+    <t>HSSOrder1137</t>
+  </si>
+  <si>
+    <t>HSSRFI1137</t>
+  </si>
+  <si>
+    <t>HSS1138</t>
+  </si>
+  <si>
+    <t>hssdomain1138.com</t>
+  </si>
+  <si>
+    <t>hssocn1138</t>
+  </si>
+  <si>
+    <t>testreference1138</t>
+  </si>
+  <si>
+    <t>hsscontact1138</t>
+  </si>
+  <si>
+    <t>hss1138@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_1138</t>
+  </si>
+  <si>
+    <t>HSSRFI_1138</t>
+  </si>
+  <si>
+    <t>HSSService_1138</t>
+  </si>
+  <si>
+    <t>113845678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit1138</t>
+  </si>
+  <si>
+    <t>HSSRFIedit1138</t>
+  </si>
+  <si>
+    <t>HSSOrder1138</t>
+  </si>
+  <si>
+    <t>HSSRFI1138</t>
+  </si>
+  <si>
+    <t>Device341</t>
+  </si>
+  <si>
+    <t>10.25.57.40</t>
+  </si>
+  <si>
+    <t>10.27.32.88</t>
+  </si>
+  <si>
+    <t>Device213</t>
   </si>
 </sst>
 </file>
@@ -547,7 +643,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,12 +653,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,12 +699,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -625,6 +709,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -906,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE4"/>
+  <dimension ref="A1:CW4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -941,14 +1026,18 @@
     <col min="26" max="26" width="13" style="1" customWidth="1"/>
     <col min="27" max="27" width="14.7109375" style="1" customWidth="1"/>
     <col min="28" max="28" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.140625" style="1" customWidth="1"/>
     <col min="33" max="33" width="19.28515625" style="1" customWidth="1"/>
-    <col min="34" max="37" width="9" style="1"/>
+    <col min="34" max="34" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9" style="1"/>
     <col min="38" max="38" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="43" width="9" style="1"/>
+    <col min="39" max="42" width="9" style="1"/>
+    <col min="43" max="43" width="14" style="1" customWidth="1"/>
     <col min="44" max="44" width="19.7109375" style="1" customWidth="1"/>
     <col min="45" max="45" width="12.7109375" style="1" customWidth="1"/>
     <col min="46" max="46" width="14.28515625" style="1" customWidth="1"/>
@@ -957,82 +1046,96 @@
     <col min="50" max="50" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="9" style="1"/>
     <col min="52" max="52" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="69" width="9" style="1"/>
+    <col min="53" max="61" width="9" style="1"/>
+    <col min="62" max="62" width="13" style="1" customWidth="1"/>
+    <col min="63" max="63" width="9" style="1"/>
+    <col min="64" max="64" width="16.28515625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="12.28515625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="9" style="1"/>
+    <col min="67" max="67" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="9" style="1"/>
     <col min="70" max="70" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="82" width="9" style="1"/>
+    <col min="71" max="71" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9" style="1"/>
+    <col min="73" max="73" width="13.140625" style="1" customWidth="1"/>
+    <col min="74" max="74" width="12.5703125" style="1" customWidth="1"/>
+    <col min="75" max="75" width="13.5703125" style="1" customWidth="1"/>
+    <col min="76" max="80" width="9" style="1"/>
+    <col min="81" max="81" width="12.7109375" style="1" customWidth="1"/>
+    <col min="82" max="82" width="9" style="1"/>
     <col min="83" max="83" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="84" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="45">
+    <row r="1" spans="1:101" ht="75">
       <c r="A1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="R1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>1</v>
@@ -1050,922 +1153,1138 @@
         <v>6</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AV1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="BI1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="BK1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="BM1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="BP1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BS1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="BD1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="BI1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="BK1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BV1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="BW1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="CD1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="CE1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="CF1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="CH1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="CI1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="CJ1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="CK1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BM1" s="12" t="s">
+      <c r="CM1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BN1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO1" s="12" t="s">
+      <c r="CN1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="CO1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="CP1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="12" t="s">
+      <c r="CQ1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="12" t="s">
+      <c r="CR1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="12" t="s">
+      <c r="CS1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="12" t="s">
+      <c r="CT1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="12" t="s">
+      <c r="CU1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="12" t="s">
+      <c r="CV1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="12" t="s">
+      <c r="CW1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BY1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="CA1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="CB1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="CC1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE1" s="9" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="2" spans="1:83" ht="33.75" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>97</v>
+    <row r="2" spans="1:101" ht="33.75" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>135</v>
+        <v>104</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AF2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>18</v>
+      <c r="AG2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AI2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BT2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BU2" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BX2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="BY2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB2" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="CC2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AK2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO2" s="19" t="s">
+      <c r="CD2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CE2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CH2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CL2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="CM2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="CO2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="CT2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="CU2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="CV2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="CW2" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AP2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:101" ht="33.75" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AQ2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS2" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV2" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="BJ2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BK2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BQ2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BV2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BW2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BX2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BY2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BZ2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CA2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CB2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CC2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CD2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CE2" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:83" ht="33.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>146</v>
+        <v>104</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="X3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="Z3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AF3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>18</v>
+      <c r="AG3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="AI3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB3" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="BC3" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="BD3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BT3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BU3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW3" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="BY3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="CC3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="CD3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CE3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CH3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CL3" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="AL3" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO3" s="19" t="s">
+      <c r="CM3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="CO3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="CT3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="CU3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="CV3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="CW3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AP3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:101" ht="33.75" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AQ3" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS3" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="AT3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV3" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="BJ3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BK3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BQ3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BV3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BW3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BX3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BY3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BZ3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CA3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CB3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CC3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CD3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CE3" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:83" ht="33.75" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>122</v>
+        <v>104</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="Z4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AF4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>18</v>
+      <c r="AG4" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM4" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BT4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BU4" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="BY4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="CC4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="CD4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CE4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="CG4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CH4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CJ4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CK4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CL4" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="CM4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="CO4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="CT4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="CU4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="CV4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="CW4" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="AP4" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ4" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV4" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AW4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="BJ4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BK4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BQ4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BV4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BW4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BX4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BY4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BZ4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CA4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CB4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CC4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CD4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="CE4" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_HSS.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_HSS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_phase1_deliverable24082020\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_Phase1_Automation_Project_Deliverables\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="246">
   <si>
     <t>Country</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>newCustomerCreation</t>
   </si>
   <si>
@@ -482,112 +479,289 @@
     <t>37534</t>
   </si>
   <si>
-    <t>Device212</t>
-  </si>
-  <si>
-    <t>10.27.32.87</t>
-  </si>
-  <si>
-    <t>10.25.57.39</t>
-  </si>
-  <si>
-    <t>Device340</t>
-  </si>
-  <si>
-    <t>HSS1137</t>
-  </si>
-  <si>
-    <t>hssdomain1137.com</t>
-  </si>
-  <si>
-    <t>hssocn1137</t>
-  </si>
-  <si>
-    <t>testreference1137</t>
-  </si>
-  <si>
-    <t>hsscontact1137</t>
-  </si>
-  <si>
-    <t>hss1137@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_1137</t>
-  </si>
-  <si>
-    <t>HSSRFI_1137</t>
-  </si>
-  <si>
-    <t>HSSService_1137</t>
-  </si>
-  <si>
-    <t>113745678</t>
-  </si>
-  <si>
-    <t>HSSOrderedit1137</t>
-  </si>
-  <si>
-    <t>HSSRFIedit1137</t>
-  </si>
-  <si>
-    <t>HSSOrder1137</t>
-  </si>
-  <si>
-    <t>HSSRFI1137</t>
-  </si>
-  <si>
-    <t>HSS1138</t>
-  </si>
-  <si>
-    <t>hssdomain1138.com</t>
-  </si>
-  <si>
-    <t>hssocn1138</t>
-  </si>
-  <si>
-    <t>testreference1138</t>
-  </si>
-  <si>
-    <t>hsscontact1138</t>
-  </si>
-  <si>
-    <t>hss1138@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_1138</t>
-  </si>
-  <si>
-    <t>HSSRFI_1138</t>
-  </si>
-  <si>
-    <t>HSSService_1138</t>
-  </si>
-  <si>
-    <t>113845678</t>
-  </si>
-  <si>
-    <t>HSSOrderedit1138</t>
-  </si>
-  <si>
-    <t>HSSRFIedit1138</t>
-  </si>
-  <si>
-    <t>HSSOrder1138</t>
-  </si>
-  <si>
-    <t>HSSRFI1138</t>
-  </si>
-  <si>
-    <t>Device341</t>
-  </si>
-  <si>
-    <t>10.25.57.40</t>
-  </si>
-  <si>
-    <t>10.27.32.88</t>
-  </si>
-  <si>
-    <t>Device213</t>
+    <t>url for the product</t>
+  </si>
+  <si>
+    <t>editOrderSelection</t>
+  </si>
+  <si>
+    <t>changeOrderSelection_newOrder</t>
+  </si>
+  <si>
+    <t>changeOrderSelection_existingOrder</t>
+  </si>
+  <si>
+    <t>ChangeOrder_existingOrderNumber</t>
+  </si>
+  <si>
+    <t>HSS5101</t>
+  </si>
+  <si>
+    <t>hssdomain5101.com</t>
+  </si>
+  <si>
+    <t>hssocn5101</t>
+  </si>
+  <si>
+    <t>testreference5101</t>
+  </si>
+  <si>
+    <t>hsscontact5101</t>
+  </si>
+  <si>
+    <t>hss5101@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_5101</t>
+  </si>
+  <si>
+    <t>HSSRFI_5101</t>
+  </si>
+  <si>
+    <t>HSSService_5101</t>
+  </si>
+  <si>
+    <t>510145678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit5101</t>
+  </si>
+  <si>
+    <t>HSSRFIedit5101</t>
+  </si>
+  <si>
+    <t>HSSOrder5101</t>
+  </si>
+  <si>
+    <t>HSSRFI5101</t>
+  </si>
+  <si>
+    <t>HSS6113</t>
+  </si>
+  <si>
+    <t>hssdomain6113.com</t>
+  </si>
+  <si>
+    <t>hssocn6113</t>
+  </si>
+  <si>
+    <t>testreference6113</t>
+  </si>
+  <si>
+    <t>hsscontact6113</t>
+  </si>
+  <si>
+    <t>hss6113@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_6113</t>
+  </si>
+  <si>
+    <t>HSSRFI_6113</t>
+  </si>
+  <si>
+    <t>HSSService_6113</t>
+  </si>
+  <si>
+    <t>611345678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit6113</t>
+  </si>
+  <si>
+    <t>HSSRFIedit6113</t>
+  </si>
+  <si>
+    <t>HSSOrder6113</t>
+  </si>
+  <si>
+    <t>HSSRFI6113</t>
+  </si>
+  <si>
+    <t>HSS7214</t>
+  </si>
+  <si>
+    <t>hssdomain7214.com</t>
+  </si>
+  <si>
+    <t>hssocn7214</t>
+  </si>
+  <si>
+    <t>testreference7214</t>
+  </si>
+  <si>
+    <t>hsscontact7214</t>
+  </si>
+  <si>
+    <t>hss7214@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_7214</t>
+  </si>
+  <si>
+    <t>HSSRFI_7214</t>
+  </si>
+  <si>
+    <t>HSSService_7214</t>
+  </si>
+  <si>
+    <t>721445678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit7214</t>
+  </si>
+  <si>
+    <t>HSSRFIedit7214</t>
+  </si>
+  <si>
+    <t>HSSOrder7214</t>
+  </si>
+  <si>
+    <t>HSSRFI7214</t>
+  </si>
+  <si>
+    <t>HSS8543</t>
+  </si>
+  <si>
+    <t>hssdomain8543.com</t>
+  </si>
+  <si>
+    <t>hssocn8543</t>
+  </si>
+  <si>
+    <t>testreference8543</t>
+  </si>
+  <si>
+    <t>hsscontact8543</t>
+  </si>
+  <si>
+    <t>hss8543@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_8543</t>
+  </si>
+  <si>
+    <t>HSSRFI_8543</t>
+  </si>
+  <si>
+    <t>HSSService_8543</t>
+  </si>
+  <si>
+    <t>854345678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit8543</t>
+  </si>
+  <si>
+    <t>HSSRFIedit8543</t>
+  </si>
+  <si>
+    <t>HSSOrder8543</t>
+  </si>
+  <si>
+    <t>HSSRFI8543</t>
+  </si>
+  <si>
+    <t>HSS9122</t>
+  </si>
+  <si>
+    <t>hssdomain9122.com</t>
+  </si>
+  <si>
+    <t>hssocn9122</t>
+  </si>
+  <si>
+    <t>testreference9122</t>
+  </si>
+  <si>
+    <t>hsscontact9122</t>
+  </si>
+  <si>
+    <t>hss9122@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_9122</t>
+  </si>
+  <si>
+    <t>HSSRFI_9122</t>
+  </si>
+  <si>
+    <t>HSSService_9122</t>
+  </si>
+  <si>
+    <t>912245678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit9122</t>
+  </si>
+  <si>
+    <t>HSSRFIedit9122</t>
+  </si>
+  <si>
+    <t>HSSOrder9122</t>
+  </si>
+  <si>
+    <t>HSSRFI9122</t>
+  </si>
+  <si>
+    <t>hssdevice5101</t>
+  </si>
+  <si>
+    <t>hssdevice6113</t>
+  </si>
+  <si>
+    <t>hssdevice7214</t>
+  </si>
+  <si>
+    <t>hssdevice8543</t>
+  </si>
+  <si>
+    <t>hssdevice9122</t>
+  </si>
+  <si>
+    <t>10.32.45.12</t>
+  </si>
+  <si>
+    <t>10.26.43.24</t>
+  </si>
+  <si>
+    <t>10.25.21.45</t>
+  </si>
+  <si>
+    <t>10.25.32.16</t>
+  </si>
+  <si>
+    <t>10.35.42.37</t>
+  </si>
+  <si>
+    <t>DeviceEdit5101</t>
+  </si>
+  <si>
+    <t>10.13.41.52</t>
+  </si>
+  <si>
+    <t>DeviceEdit6113</t>
+  </si>
+  <si>
+    <t>10.46.72.83</t>
+  </si>
+  <si>
+    <t>DeviceEdit7214</t>
+  </si>
+  <si>
+    <t>10.31.64.57</t>
+  </si>
+  <si>
+    <t>DeviceEdit8543</t>
+  </si>
+  <si>
+    <t>10.26.52.15</t>
+  </si>
+  <si>
+    <t>10.48.36.72</t>
+  </si>
+  <si>
+    <t>DeviceEdit9122</t>
   </si>
 </sst>
 </file>
@@ -991,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW4"/>
+  <dimension ref="A1:DA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1029,22 +1203,25 @@
     <col min="29" max="29" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="19.28515625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9" style="1"/>
+    <col min="37" max="37" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="42" width="9" style="1"/>
+    <col min="39" max="39" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="9" style="1"/>
     <col min="43" max="43" width="14" style="1" customWidth="1"/>
     <col min="44" max="44" width="19.7109375" style="1" customWidth="1"/>
     <col min="45" max="45" width="12.7109375" style="1" customWidth="1"/>
     <col min="46" max="46" width="14.28515625" style="1" customWidth="1"/>
-    <col min="47" max="48" width="13.140625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="13.140625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="18" style="1" customWidth="1"/>
     <col min="49" max="49" width="9" style="1"/>
     <col min="50" max="50" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9" style="1"/>
+    <col min="51" max="51" width="14.140625" style="1" customWidth="1"/>
     <col min="52" max="52" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="61" width="9" style="1"/>
     <col min="62" max="62" width="13" style="1" customWidth="1"/>
@@ -1060,64 +1237,68 @@
     <col min="73" max="73" width="13.140625" style="1" customWidth="1"/>
     <col min="74" max="74" width="12.5703125" style="1" customWidth="1"/>
     <col min="75" max="75" width="13.5703125" style="1" customWidth="1"/>
-    <col min="76" max="80" width="9" style="1"/>
+    <col min="76" max="76" width="9" style="1"/>
+    <col min="77" max="77" width="19.5703125" style="1" customWidth="1"/>
+    <col min="78" max="78" width="16.5703125" style="1" customWidth="1"/>
+    <col min="79" max="79" width="13.42578125" style="1" customWidth="1"/>
+    <col min="80" max="80" width="9" style="1"/>
     <col min="81" max="81" width="12.7109375" style="1" customWidth="1"/>
     <col min="82" max="82" width="9" style="1"/>
     <col min="83" max="83" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="84" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" ht="75">
+    <row r="1" spans="1:105" ht="75">
       <c r="A1" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="E1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>18</v>
@@ -1153,10 +1334,10 @@
         <v>6</v>
       </c>
       <c r="AC1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="AE1" s="6" t="s">
         <v>10</v>
@@ -1165,219 +1346,231 @@
         <v>12</v>
       </c>
       <c r="AG1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AM1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AV1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AW1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="BC1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BE1" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="BI1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="BK1" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BS1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BV1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BW1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BX1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BY1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="CB1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="CC1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="CD1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CE1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CF1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CG1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CH1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CI1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CJ1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="CF1" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="CG1" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CK1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="CL1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CM1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CN1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CO1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CP1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CQ1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CR1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CS1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CT1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="CU1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="CR1" s="9" t="s">
+      <c r="CV1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CW1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="CX1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="CU1" s="9" t="s">
+      <c r="CY1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="CV1" s="9" t="s">
+      <c r="CZ1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="CW1" s="9" t="s">
+      <c r="DA1" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:101" ht="33.75" customHeight="1">
+    <row r="2" spans="1:105" ht="33.75" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>42</v>
@@ -1386,43 +1579,43 @@
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>8</v>
@@ -1431,22 +1624,22 @@
         <v>42</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>7</v>
@@ -1455,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>42</v>
@@ -1469,220 +1662,232 @@
       <c r="AF2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="8" t="s">
-        <v>180</v>
+      <c r="AG2" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AP2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AM2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN2" s="13" t="s">
+      <c r="AQ2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AS2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AP2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AT2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AR2" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AU2" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="AY2" s="10" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="AZ2" s="10" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="BA2" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="BB2" s="10" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="BC2" s="10" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="BD2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="BE2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BE2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="BH2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI2" s="11" t="s">
+      <c r="BL2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="BJ2" s="11" t="s">
+      <c r="BN2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="BK2" s="11" t="s">
+      <c r="BO2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="BL2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BM2" s="11" t="s">
+      <c r="BP2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="BN2" s="11" t="s">
+      <c r="BR2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BO2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP2" s="11" t="s">
+      <c r="BS2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="BQ2" s="11" t="s">
+      <c r="BU2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="BR2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS2" s="11" t="s">
+      <c r="BV2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="BT2" s="11" t="s">
+      <c r="BX2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="BU2" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="BV2" s="11" t="s">
+      <c r="BY2" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="BZ2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="CA2" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="CB2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CF2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="CL2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP2" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="BW2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="BX2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="CC2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="CF2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CH2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CI2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
+      <c r="CQ2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="CK2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="CL2" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CN2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="CO2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CP2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CQ2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CR2" s="11" t="s">
+      <c r="CW2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="CS2" s="11" t="s">
+      <c r="CX2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="CT2" s="11" t="s">
+      <c r="CY2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="CU2" s="11" t="s">
+      <c r="CZ2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="CV2" s="11" t="s">
+      <c r="DA2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="CW2" s="11" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="3" spans="1:101" ht="33.75" customHeight="1">
+    <row r="3" spans="1:105" ht="33.75" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>42</v>
@@ -1691,43 +1896,43 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>8</v>
@@ -1736,22 +1941,22 @@
         <v>42</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="X3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>7</v>
@@ -1760,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>42</v>
@@ -1774,220 +1979,232 @@
       <c r="AF3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="8" t="s">
-        <v>166</v>
+      <c r="AG3" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AP3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AM3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN3" s="13" t="s">
+      <c r="AQ3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" s="14" t="s">
+      <c r="AS3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AP3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
+      <c r="AT3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AR3" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AV3" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AX3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AU3" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AV3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX3" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="AY3" s="10" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="AZ3" s="10" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="BA3" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="BB3" s="10" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="BC3" s="10" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="BD3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="BE3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BE3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="BH3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI3" s="11" t="s">
+      <c r="BL3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="BJ3" s="11" t="s">
+      <c r="BN3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="BO3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="BL3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BM3" s="11" t="s">
+      <c r="BP3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="BN3" s="11" t="s">
+      <c r="BR3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BO3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP3" s="11" t="s">
+      <c r="BS3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="BQ3" s="11" t="s">
+      <c r="BU3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="BR3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS3" s="11" t="s">
+      <c r="BV3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="BT3" s="11" t="s">
+      <c r="BX3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="BU3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="BV3" s="11" t="s">
+      <c r="BY3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="BZ3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="CA3" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="CB3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CC3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CF3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="CL3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CN3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="BW3" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BX3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB3" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="CC3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD3" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="CF3" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="CG3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CH3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CI3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CQ3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="CK3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="CL3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CN3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="CO3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CP3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CQ3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CR3" s="11" t="s">
+      <c r="CW3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="CS3" s="11" t="s">
+      <c r="CX3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="CT3" s="11" t="s">
+      <c r="CY3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="CU3" s="11" t="s">
+      <c r="CZ3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="CV3" s="11" t="s">
+      <c r="DA3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="CW3" s="11" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="4" spans="1:101" ht="33.75" customHeight="1">
+    <row r="4" spans="1:105" ht="33.75" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>42</v>
@@ -1996,43 +2213,43 @@
         <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>8</v>
@@ -2041,22 +2258,22 @@
         <v>42</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>7</v>
@@ -2065,7 +2282,7 @@
         <v>9</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>42</v>
@@ -2079,212 +2296,858 @@
       <c r="AF4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AG4" s="8" t="s">
-        <v>166</v>
+      <c r="AG4" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK4" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AP4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AM4" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN4" s="13" t="s">
+      <c r="AQ4" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AO4" s="14" t="s">
+      <c r="AS4" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AP4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ4" s="5" t="s">
+      <c r="AT4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AR4" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AV4" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AT4" s="10" t="s">
+      <c r="AX4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AU4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AV4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX4" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="AY4" s="10" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="AZ4" s="10" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="BA4" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="BB4" s="10" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="BC4" s="10" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="BD4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="BE4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG4" s="2" t="s">
+      <c r="BE4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="BH4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI4" s="11" t="s">
+      <c r="BL4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="BJ4" s="11" t="s">
+      <c r="BN4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="BK4" s="11" t="s">
+      <c r="BO4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="BL4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BM4" s="11" t="s">
+      <c r="BP4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="BN4" s="11" t="s">
+      <c r="BR4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BO4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP4" s="11" t="s">
+      <c r="BS4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="BQ4" s="11" t="s">
+      <c r="BU4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="BR4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS4" s="11" t="s">
+      <c r="BV4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="BT4" s="11" t="s">
+      <c r="BX4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="BU4" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="BV4" s="11" t="s">
+      <c r="BY4" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="BZ4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="CA4" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="CB4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CC4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CF4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="CL4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CN4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP4" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="BW4" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BX4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB4" s="8" t="s">
+      <c r="CQ4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="CW4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="CY4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="CZ4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="DA4" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:105" ht="33.75" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="BN5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BU5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BV5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BX5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BY5" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="BZ5" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="CA5" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="CB5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CC5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CF5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG5" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="CC4" s="8" t="s">
+      <c r="CH5" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="CD4" s="8" t="s">
+      <c r="CI5" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="CE4" s="8" t="s">
+      <c r="CJ5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="CF4" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="CG4" s="2" t="s">
+      <c r="CK5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="CL5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CN5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP5" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="CQ5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="CW5" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX5" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="CY5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="CZ5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="DA5" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:105" ht="33.75" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY6" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="BN6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BU6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BV6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BX6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BY6" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BZ6" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="CH4" s="11" t="s">
+      <c r="CA6" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="CB6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CC6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="CF6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="CL6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CN6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="CI4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="CJ4" s="2" t="s">
+      <c r="CO6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP6" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="CQ6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="CK4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="CL4" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CN4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="CO4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CP4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CQ4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CR4" s="11" t="s">
+      <c r="CW6" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="CS4" s="11" t="s">
+      <c r="CX6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="CT4" s="11" t="s">
+      <c r="CY6" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="CU4" s="11" t="s">
+      <c r="CZ6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="CV4" s="11" t="s">
+      <c r="DA6" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="CW4" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2292,8 +3155,10 @@
     <hyperlink ref="M2" r:id="rId1" display="hss1008@test.com"/>
     <hyperlink ref="M3" r:id="rId2" display="hss1008@test.com"/>
     <hyperlink ref="M4" r:id="rId3" display="hss1008@test.com"/>
+    <hyperlink ref="M5" r:id="rId4" display="hss1008@test.com"/>
+    <hyperlink ref="M6" r:id="rId5" display="hss1008@test.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_HSS.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_HSS.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="HSS" sheetId="2" r:id="rId1"/>
+    <sheet name="Unique Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="247">
   <si>
     <t>Country</t>
   </si>
@@ -494,274 +495,277 @@
     <t>ChangeOrder_existingOrderNumber</t>
   </si>
   <si>
-    <t>HSS5101</t>
-  </si>
-  <si>
-    <t>hssdomain5101.com</t>
-  </si>
-  <si>
-    <t>hssocn5101</t>
-  </si>
-  <si>
-    <t>testreference5101</t>
-  </si>
-  <si>
-    <t>hsscontact5101</t>
-  </si>
-  <si>
-    <t>hss5101@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_5101</t>
-  </si>
-  <si>
-    <t>HSSRFI_5101</t>
-  </si>
-  <si>
-    <t>HSSService_5101</t>
-  </si>
-  <si>
-    <t>510145678</t>
-  </si>
-  <si>
-    <t>HSSOrderedit5101</t>
-  </si>
-  <si>
-    <t>HSSRFIedit5101</t>
-  </si>
-  <si>
-    <t>HSSOrder5101</t>
-  </si>
-  <si>
-    <t>HSSRFI5101</t>
-  </si>
-  <si>
-    <t>HSS6113</t>
-  </si>
-  <si>
-    <t>hssdomain6113.com</t>
-  </si>
-  <si>
-    <t>hssocn6113</t>
-  </si>
-  <si>
-    <t>testreference6113</t>
-  </si>
-  <si>
-    <t>hsscontact6113</t>
-  </si>
-  <si>
-    <t>hss6113@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_6113</t>
-  </si>
-  <si>
-    <t>HSSRFI_6113</t>
-  </si>
-  <si>
-    <t>HSSService_6113</t>
-  </si>
-  <si>
-    <t>611345678</t>
-  </si>
-  <si>
-    <t>HSSOrderedit6113</t>
-  </si>
-  <si>
-    <t>HSSRFIedit6113</t>
-  </si>
-  <si>
-    <t>HSSOrder6113</t>
-  </si>
-  <si>
-    <t>HSSRFI6113</t>
-  </si>
-  <si>
-    <t>HSS7214</t>
-  </si>
-  <si>
-    <t>hssdomain7214.com</t>
-  </si>
-  <si>
-    <t>hssocn7214</t>
-  </si>
-  <si>
-    <t>testreference7214</t>
-  </si>
-  <si>
-    <t>hsscontact7214</t>
-  </si>
-  <si>
-    <t>hss7214@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_7214</t>
-  </si>
-  <si>
-    <t>HSSRFI_7214</t>
-  </si>
-  <si>
-    <t>HSSService_7214</t>
-  </si>
-  <si>
-    <t>721445678</t>
-  </si>
-  <si>
-    <t>HSSOrderedit7214</t>
-  </si>
-  <si>
-    <t>HSSRFIedit7214</t>
-  </si>
-  <si>
-    <t>HSSOrder7214</t>
-  </si>
-  <si>
-    <t>HSSRFI7214</t>
-  </si>
-  <si>
-    <t>HSS8543</t>
-  </si>
-  <si>
-    <t>hssdomain8543.com</t>
-  </si>
-  <si>
-    <t>hssocn8543</t>
-  </si>
-  <si>
-    <t>testreference8543</t>
-  </si>
-  <si>
-    <t>hsscontact8543</t>
-  </si>
-  <si>
-    <t>hss8543@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_8543</t>
-  </si>
-  <si>
-    <t>HSSRFI_8543</t>
-  </si>
-  <si>
-    <t>HSSService_8543</t>
-  </si>
-  <si>
-    <t>854345678</t>
-  </si>
-  <si>
-    <t>HSSOrderedit8543</t>
-  </si>
-  <si>
-    <t>HSSRFIedit8543</t>
-  </si>
-  <si>
-    <t>HSSOrder8543</t>
-  </si>
-  <si>
-    <t>HSSRFI8543</t>
-  </si>
-  <si>
-    <t>HSS9122</t>
-  </si>
-  <si>
-    <t>hssdomain9122.com</t>
-  </si>
-  <si>
-    <t>hssocn9122</t>
-  </si>
-  <si>
-    <t>testreference9122</t>
-  </si>
-  <si>
-    <t>hsscontact9122</t>
-  </si>
-  <si>
-    <t>hss9122@test.com</t>
-  </si>
-  <si>
-    <t>HSSOrder_9122</t>
-  </si>
-  <si>
-    <t>HSSRFI_9122</t>
-  </si>
-  <si>
-    <t>HSSService_9122</t>
-  </si>
-  <si>
-    <t>912245678</t>
-  </si>
-  <si>
-    <t>HSSOrderedit9122</t>
-  </si>
-  <si>
-    <t>HSSRFIedit9122</t>
-  </si>
-  <si>
-    <t>HSSOrder9122</t>
-  </si>
-  <si>
-    <t>HSSRFI9122</t>
-  </si>
-  <si>
-    <t>hssdevice5101</t>
-  </si>
-  <si>
-    <t>hssdevice6113</t>
-  </si>
-  <si>
-    <t>hssdevice7214</t>
-  </si>
-  <si>
-    <t>hssdevice8543</t>
-  </si>
-  <si>
-    <t>hssdevice9122</t>
-  </si>
-  <si>
-    <t>10.32.45.12</t>
-  </si>
-  <si>
-    <t>10.26.43.24</t>
-  </si>
-  <si>
-    <t>10.25.21.45</t>
-  </si>
-  <si>
-    <t>10.25.32.16</t>
-  </si>
-  <si>
-    <t>10.35.42.37</t>
-  </si>
-  <si>
-    <t>DeviceEdit5101</t>
-  </si>
-  <si>
-    <t>10.13.41.52</t>
-  </si>
-  <si>
-    <t>DeviceEdit6113</t>
-  </si>
-  <si>
-    <t>10.46.72.83</t>
-  </si>
-  <si>
-    <t>DeviceEdit7214</t>
-  </si>
-  <si>
-    <t>10.31.64.57</t>
-  </si>
-  <si>
-    <t>DeviceEdit8543</t>
-  </si>
-  <si>
-    <t>10.26.52.15</t>
-  </si>
-  <si>
-    <t>10.48.36.72</t>
-  </si>
-  <si>
-    <t>DeviceEdit9122</t>
+    <t>Columns for which unique data to be provided</t>
+  </si>
+  <si>
+    <t>HSS5106</t>
+  </si>
+  <si>
+    <t>hssdomain5106.com</t>
+  </si>
+  <si>
+    <t>hssocn5106</t>
+  </si>
+  <si>
+    <t>testreference5106</t>
+  </si>
+  <si>
+    <t>hsscontact5106</t>
+  </si>
+  <si>
+    <t>hss5106@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_5106</t>
+  </si>
+  <si>
+    <t>HSSRFI_5106</t>
+  </si>
+  <si>
+    <t>HSSService_5106</t>
+  </si>
+  <si>
+    <t>510645678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit5106</t>
+  </si>
+  <si>
+    <t>HSSRFIedit5106</t>
+  </si>
+  <si>
+    <t>HSSOrder5106</t>
+  </si>
+  <si>
+    <t>HSSRFI5106</t>
+  </si>
+  <si>
+    <t>hssdevice5106</t>
+  </si>
+  <si>
+    <t>DeviceEdit5106</t>
+  </si>
+  <si>
+    <t>HSS6117</t>
+  </si>
+  <si>
+    <t>hssdomain6117.com</t>
+  </si>
+  <si>
+    <t>hssocn6117</t>
+  </si>
+  <si>
+    <t>testreference6117</t>
+  </si>
+  <si>
+    <t>hsscontact6117</t>
+  </si>
+  <si>
+    <t>hss6117@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_6117</t>
+  </si>
+  <si>
+    <t>HSSRFI_6117</t>
+  </si>
+  <si>
+    <t>HSSService_6117</t>
+  </si>
+  <si>
+    <t>611745678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit6117</t>
+  </si>
+  <si>
+    <t>HSSRFIedit6117</t>
+  </si>
+  <si>
+    <t>HSSOrder6117</t>
+  </si>
+  <si>
+    <t>HSSRFI6117</t>
+  </si>
+  <si>
+    <t>hssdevice6117</t>
+  </si>
+  <si>
+    <t>DeviceEdit6117</t>
+  </si>
+  <si>
+    <t>HSS7218</t>
+  </si>
+  <si>
+    <t>hssdomain7218.com</t>
+  </si>
+  <si>
+    <t>hssocn7218</t>
+  </si>
+  <si>
+    <t>testreference7218</t>
+  </si>
+  <si>
+    <t>hsscontact7218</t>
+  </si>
+  <si>
+    <t>hss7218@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_7218</t>
+  </si>
+  <si>
+    <t>HSSRFI_7218</t>
+  </si>
+  <si>
+    <t>HSSService_7218</t>
+  </si>
+  <si>
+    <t>721845678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit7218</t>
+  </si>
+  <si>
+    <t>HSSRFIedit7218</t>
+  </si>
+  <si>
+    <t>HSSOrder7218</t>
+  </si>
+  <si>
+    <t>HSSRFI7218</t>
+  </si>
+  <si>
+    <t>hssdevice7218</t>
+  </si>
+  <si>
+    <t>DeviceEdit7218</t>
+  </si>
+  <si>
+    <t>HSS8546</t>
+  </si>
+  <si>
+    <t>hssdomain8546.com</t>
+  </si>
+  <si>
+    <t>hssocn8546</t>
+  </si>
+  <si>
+    <t>testreference8546</t>
+  </si>
+  <si>
+    <t>hsscontact8546</t>
+  </si>
+  <si>
+    <t>hss8546@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_8546</t>
+  </si>
+  <si>
+    <t>HSSRFI_8546</t>
+  </si>
+  <si>
+    <t>HSSService_8546</t>
+  </si>
+  <si>
+    <t>854645678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit8546</t>
+  </si>
+  <si>
+    <t>HSSRFIedit8546</t>
+  </si>
+  <si>
+    <t>HSSOrder8546</t>
+  </si>
+  <si>
+    <t>HSSRFI8546</t>
+  </si>
+  <si>
+    <t>hssdevice8546</t>
+  </si>
+  <si>
+    <t>DeviceEdit8546</t>
+  </si>
+  <si>
+    <t>10.32.45.16</t>
+  </si>
+  <si>
+    <t>10.26.43.26</t>
+  </si>
+  <si>
+    <t>10.25.21.48</t>
+  </si>
+  <si>
+    <t>10.25.32.19</t>
+  </si>
+  <si>
+    <t>10.13.41.55</t>
+  </si>
+  <si>
+    <t>10.46.72.86</t>
+  </si>
+  <si>
+    <t>10.31.64.60</t>
+  </si>
+  <si>
+    <t>10.26.52.18</t>
+  </si>
+  <si>
+    <t>HSS9126</t>
+  </si>
+  <si>
+    <t>hssdomain9126.com</t>
+  </si>
+  <si>
+    <t>hssocn9126</t>
+  </si>
+  <si>
+    <t>testreference9126</t>
+  </si>
+  <si>
+    <t>hsscontact9126</t>
+  </si>
+  <si>
+    <t>hss9126@test.com</t>
+  </si>
+  <si>
+    <t>HSSOrder_9126</t>
+  </si>
+  <si>
+    <t>HSSRFI_9126</t>
+  </si>
+  <si>
+    <t>HSSService_9126</t>
+  </si>
+  <si>
+    <t>912645678</t>
+  </si>
+  <si>
+    <t>HSSOrderedit9126</t>
+  </si>
+  <si>
+    <t>HSSRFIedit9126</t>
+  </si>
+  <si>
+    <t>HSSOrder9126</t>
+  </si>
+  <si>
+    <t>HSSRFI9126</t>
+  </si>
+  <si>
+    <t>hssdevice9126</t>
+  </si>
+  <si>
+    <t>DeviceEdit9126</t>
+  </si>
+  <si>
+    <t>10.35.42.42</t>
+  </si>
+  <si>
+    <t>10.48.36.78</t>
   </si>
 </sst>
 </file>
@@ -817,7 +821,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,6 +831,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -884,6 +894,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1168,7 +1185,7 @@
   <dimension ref="A1:DA6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1255,25 +1272,25 @@
       <c r="B1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="20" t="s">
         <v>91</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="20" t="s">
         <v>93</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -1300,28 +1317,28 @@
       <c r="Q1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="20" t="s">
         <v>23</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="Z1" s="6" t="s">
@@ -1345,28 +1362,28 @@
       <c r="AF1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="20" t="s">
         <v>155</v>
       </c>
       <c r="AO1" s="9" t="s">
@@ -1387,10 +1404,10 @@
       <c r="AT1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="21" t="s">
         <v>14</v>
       </c>
       <c r="AW1" s="9" t="s">
@@ -1399,7 +1416,7 @@
       <c r="AX1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="21" t="s">
         <v>15</v>
       </c>
       <c r="AZ1" s="9" t="s">
@@ -1450,40 +1467,40 @@
       <c r="BO1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BP1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BQ1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BR1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BS1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BU1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BV1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BW1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BX1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BY1" s="21" t="s">
         <v>52</v>
       </c>
       <c r="BZ1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CA1" s="21" t="s">
         <v>73</v>
       </c>
       <c r="CB1" s="9" t="s">
@@ -1537,31 +1554,31 @@
       <c r="CR1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CS1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="CT1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="CU1" s="9" t="s">
+      <c r="CU1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="CV1" s="9" t="s">
+      <c r="CV1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CW1" s="9" t="s">
+      <c r="CW1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="CX1" s="9" t="s">
+      <c r="CX1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="CY1" s="9" t="s">
+      <c r="CY1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="CZ1" s="9" t="s">
+      <c r="CZ1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="DA1" s="9" t="s">
+      <c r="DA1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1579,31 +1596,31 @@
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>103</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>104</v>
@@ -1624,22 +1641,22 @@
         <v>42</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="W2" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>7</v>
@@ -1648,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>42</v>
@@ -1666,25 +1683,25 @@
         <v>42</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="AO2" s="12" t="s">
         <v>75</v>
@@ -1708,7 +1725,7 @@
         <v>84</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="AW2" s="10" t="s">
         <v>72</v>
@@ -1717,7 +1734,7 @@
         <v>17</v>
       </c>
       <c r="AY2" s="10" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AZ2" s="10" t="s">
         <v>8</v>
@@ -1795,13 +1812,13 @@
         <v>51</v>
       </c>
       <c r="BY2" s="11" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="BZ2" s="11" t="s">
         <v>145</v>
       </c>
       <c r="CA2" s="11" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="CB2" s="8" t="s">
         <v>42</v>
@@ -1884,7 +1901,7 @@
     </row>
     <row r="3" spans="1:105" ht="33.75" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>88</v>
@@ -1896,31 +1913,31 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>103</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>104</v>
@@ -1941,22 +1958,22 @@
         <v>42</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="X3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>7</v>
@@ -1965,7 +1982,7 @@
         <v>9</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>42</v>
@@ -1983,25 +2000,25 @@
         <v>42</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AJ3" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AL3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="AO3" s="12" t="s">
         <v>75</v>
@@ -2025,7 +2042,7 @@
         <v>84</v>
       </c>
       <c r="AV3" s="10" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="AW3" s="10" t="s">
         <v>72</v>
@@ -2034,7 +2051,7 @@
         <v>17</v>
       </c>
       <c r="AY3" s="10" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AZ3" s="10" t="s">
         <v>8</v>
@@ -2112,13 +2129,13 @@
         <v>51</v>
       </c>
       <c r="BY3" s="11" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="BZ3" s="11" t="s">
         <v>145</v>
       </c>
       <c r="CA3" s="11" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="CB3" s="8" t="s">
         <v>42</v>
@@ -2201,7 +2218,7 @@
     </row>
     <row r="4" spans="1:105" ht="33.75" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>88</v>
@@ -2213,31 +2230,31 @@
         <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>103</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>104</v>
@@ -2258,22 +2275,22 @@
         <v>42</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>7</v>
@@ -2282,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>42</v>
@@ -2300,25 +2317,25 @@
         <v>42</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AJ4" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AO4" s="12" t="s">
         <v>75</v>
@@ -2342,7 +2359,7 @@
         <v>84</v>
       </c>
       <c r="AV4" s="10" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AW4" s="10" t="s">
         <v>72</v>
@@ -2351,7 +2368,7 @@
         <v>17</v>
       </c>
       <c r="AY4" s="10" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AZ4" s="10" t="s">
         <v>8</v>
@@ -2429,13 +2446,13 @@
         <v>51</v>
       </c>
       <c r="BY4" s="11" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="BZ4" s="11" t="s">
         <v>145</v>
       </c>
       <c r="CA4" s="11" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="CB4" s="8" t="s">
         <v>42</v>
@@ -2530,31 +2547,31 @@
         <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>103</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>104</v>
@@ -2575,22 +2592,22 @@
         <v>42</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="X5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>7</v>
@@ -2599,7 +2616,7 @@
         <v>9</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>42</v>
@@ -2617,25 +2634,25 @@
         <v>42</v>
       </c>
       <c r="AH5" s="8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AI5" s="8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AJ5" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AK5" s="8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AL5" s="8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AN5" s="8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AO5" s="12" t="s">
         <v>75</v>
@@ -2659,7 +2676,7 @@
         <v>84</v>
       </c>
       <c r="AV5" s="10" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="AW5" s="10" t="s">
         <v>72</v>
@@ -2668,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="AY5" s="10" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AZ5" s="10" t="s">
         <v>8</v>
@@ -2746,13 +2763,13 @@
         <v>51</v>
       </c>
       <c r="BY5" s="11" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="BZ5" s="11" t="s">
         <v>145</v>
       </c>
       <c r="CA5" s="11" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="CB5" s="8" t="s">
         <v>42</v>
@@ -2847,31 +2864,31 @@
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>103</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>104</v>
@@ -2892,22 +2909,22 @@
         <v>42</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="X6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>7</v>
@@ -2916,7 +2933,7 @@
         <v>9</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>42</v>
@@ -2934,25 +2951,25 @@
         <v>42</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AJ6" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AK6" s="8" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AL6" s="8" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AN6" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AO6" s="12" t="s">
         <v>75</v>
@@ -2976,7 +2993,7 @@
         <v>84</v>
       </c>
       <c r="AV6" s="10" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="AW6" s="10" t="s">
         <v>72</v>
@@ -2985,7 +3002,7 @@
         <v>17</v>
       </c>
       <c r="AY6" s="10" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="AZ6" s="10" t="s">
         <v>8</v>
@@ -3063,13 +3080,13 @@
         <v>51</v>
       </c>
       <c r="BY6" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BZ6" s="11" t="s">
         <v>145</v>
       </c>
       <c r="CA6" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CB6" s="8" t="s">
         <v>42</v>
@@ -3161,4 +3178,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>